--- a/backend/arena/calc4_demo.xlsx
+++ b/backend/arena/calc4_demo.xlsx
@@ -40,13 +40,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -78,28 +78,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,11 +403,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -426,7 +420,7 @@
       <c r="E1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>343</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -434,9 +428,11 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>7.7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.234</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
